--- a/Розкрій.xlsx
+++ b/Розкрій.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Проекти\розкрій ванна\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Проекти\ванна карамелька\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86FA1B1-E04D-49E9-82EF-CB04C0515036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3F10D9-5A7A-4DD4-A85D-CEEEDB2B184B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{735B52FB-7804-488C-9A59-D7DEED1D349D}"/>
   </bookViews>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="60">
   <si>
     <t>Артикул</t>
   </si>
@@ -285,128 +285,143 @@
     <t xml:space="preserve">          Виконавець дизайну:                                                                                                                                                 Виконавець збірки:</t>
   </si>
   <si>
+    <t>ПОЛКА</t>
+  </si>
+  <si>
+    <t>AGT_728</t>
+  </si>
+  <si>
+    <t>КРЫША</t>
+  </si>
+  <si>
+    <t>ДНО</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>Замовник Наталія Миронюк</t>
+  </si>
+  <si>
+    <t>ЖК "КАРАМЕЛЬКА"</t>
+  </si>
+  <si>
     <t xml:space="preserve">Богдана                                                                                                     </t>
   </si>
   <si>
     <t xml:space="preserve">Наталія Миронюк </t>
   </si>
   <si>
+    <t>ФАСАД</t>
+  </si>
+  <si>
+    <t>857</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Бк.Стійка</t>
+  </si>
+  <si>
+    <t>ФАЛЬШКИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стійка </t>
+  </si>
+  <si>
+    <t>2583</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>H1181</t>
+  </si>
+  <si>
+    <t>ЗАДНИЙ ЩИТ</t>
+  </si>
+  <si>
+    <t>1449</t>
+  </si>
+  <si>
+    <t>Бк. Стійка</t>
+  </si>
+  <si>
+    <t>ПОПЕРЕЧИНА</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БК. Стійка </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кришка </t>
+  </si>
+  <si>
+    <t>H1182</t>
+  </si>
+  <si>
+    <t>ХДФ</t>
+  </si>
+  <si>
+    <t>НАКЛАДНА</t>
+  </si>
+  <si>
+    <t>ЦОКОЛЬ</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фальшки </t>
+  </si>
+  <si>
+    <t>Стійка</t>
+  </si>
+  <si>
+    <t>МДФ</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
     <t>фасад</t>
   </si>
   <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>1446</t>
+  </si>
+  <si>
+    <t>Подвесной кронштейн для  модулей левый</t>
+  </si>
+  <si>
+    <t>Подвесной кронштейн для  модулей правий</t>
+  </si>
+  <si>
     <t>blum</t>
   </si>
   <si>
-    <t>Замовник</t>
-  </si>
-  <si>
-    <t>ванна прихожа</t>
-  </si>
-  <si>
-    <t>Бокова стійка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">дно </t>
-  </si>
-  <si>
-    <t>полка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">поперечна </t>
-  </si>
-  <si>
-    <t>цоколь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бокова стійка </t>
-  </si>
-  <si>
-    <t>дно</t>
-  </si>
-  <si>
-    <t>поперечна</t>
-  </si>
-  <si>
-    <t>шухляда</t>
-  </si>
-  <si>
-    <t>бокова стійка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">задня-передня панель </t>
-  </si>
-  <si>
-    <t xml:space="preserve">КРИШКА </t>
-  </si>
-  <si>
-    <t xml:space="preserve">дзеркало </t>
-  </si>
-  <si>
-    <t>підсвітка</t>
-  </si>
-  <si>
-    <t>задній щит</t>
-  </si>
-  <si>
-    <t>кришка</t>
-  </si>
-  <si>
-    <t>скло</t>
-  </si>
-  <si>
-    <t>криша</t>
-  </si>
-  <si>
-    <t xml:space="preserve">полки 1 </t>
-  </si>
-  <si>
-    <t>полки 2</t>
-  </si>
-  <si>
-    <t>фасад 1</t>
-  </si>
-  <si>
-    <t>фасад 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">підсвітка </t>
-  </si>
-  <si>
-    <t>3,21 м</t>
-  </si>
-  <si>
-    <t>рамка чорна</t>
-  </si>
-  <si>
-    <t>ads</t>
-  </si>
-  <si>
-    <t>петлі</t>
-  </si>
-  <si>
-    <t>F433 ЛЁН АНТРАЦИТ</t>
-  </si>
-  <si>
-    <t>H3331 ДУБ НЕБРАСКА НАТУРАЛЬНЫЙ</t>
-  </si>
-  <si>
-    <t>H3453 ФЛИТВУД СЕРАЯ ЛАВА</t>
-  </si>
-  <si>
-    <t>фальшка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">направляючі tandem 300 </t>
-  </si>
-  <si>
-    <t>повний висув</t>
+    <t>Петля накладна з тіпоном</t>
+  </si>
+  <si>
+    <t>Ніжка пластикова</t>
+  </si>
+  <si>
+    <t>ФРЕЗЕРОВАНА ПІДСТВІТКА</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,8 +512,24 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,6 +540,16 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -600,11 +641,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -675,28 +718,80 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Нейтральний" xfId="3" builtinId="28"/>
     <cellStyle name="Підсумок" xfId="1" builtinId="25"/>
+    <cellStyle name="Поганий" xfId="2" builtinId="27"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="double"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="double"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -871,22 +966,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>27148</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>424963</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>58616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2213047</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>58615</xdr:rowOff>
+      <xdr:colOff>1597271</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>81912</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2">
+        <xdr:cNvPr id="23" name="Рисунок 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35B008A3-2036-43DA-9883-FCD1F64146D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A858622-3758-441A-8332-C630F975272A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,8 +997,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="312898" y="4183673"/>
-          <a:ext cx="2185899" cy="1011115"/>
+          <a:off x="710713" y="4051789"/>
+          <a:ext cx="1172308" cy="2690296"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -914,23 +1009,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>359021</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>131884</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>65943</xdr:rowOff>
+      <xdr:rowOff>80597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1912329</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>8918</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2329289</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Рисунок 6">
+        <xdr:cNvPr id="28" name="Рисунок 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB4E69C-D43E-4C85-B0FD-7B697C305CF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264D587C-2C5F-48A8-98B6-1FC98EC0337F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -946,8 +1041,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="644771" y="249116"/>
-          <a:ext cx="1553308" cy="3181475"/>
+          <a:off x="6389076" y="263770"/>
+          <a:ext cx="2197405" cy="2227384"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -958,23 +1053,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>344367</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>4432</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>58616</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2517262</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2170643</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>7327</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Рисунок 7">
+        <xdr:cNvPr id="29" name="Рисунок 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D51ABB-E2B6-42BF-9090-C52F08310D86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E948EE8B-F9D9-4609-AF76-50F9CA0B3953}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -990,8 +1085,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6242540" y="3997605"/>
-          <a:ext cx="2531914" cy="955395"/>
+          <a:off x="344366" y="212481"/>
+          <a:ext cx="2112027" cy="2454519"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1003,22 +1098,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>212481</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>29309</xdr:rowOff>
+      <xdr:colOff>527265</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2047753</xdr:colOff>
+      <xdr:colOff>1589941</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>14655</xdr:rowOff>
+      <xdr:rowOff>87270</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Рисунок 8">
+        <xdr:cNvPr id="30" name="Рисунок 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884E8823-8471-4BA6-B9CA-69CCBD5902C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52D496D2-CEC6-4EDE-B48F-D74DDDE5BE5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1034,8 +1129,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="498231" y="7641982"/>
-          <a:ext cx="1835272" cy="2652346"/>
+          <a:off x="813015" y="7583365"/>
+          <a:ext cx="1062676" cy="2783578"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1046,23 +1141,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>124558</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>65942</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>901212</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2007577</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>2575</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2028825</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>73270</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Рисунок 9">
+        <xdr:cNvPr id="31" name="Рисунок 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54834AB8-26D0-4394-A574-1B1FAAEFE756}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{483071EA-6AA4-40E9-BD7D-544707B3C791}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1078,8 +1173,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="410308" y="10726615"/>
-          <a:ext cx="1883019" cy="3175133"/>
+          <a:off x="7158404" y="7634654"/>
+          <a:ext cx="1127613" cy="2718289"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>65942</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>29307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2117480</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>16058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Рисунок 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F271CC9A-86C2-4DAA-96E0-338A1EC4635C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="351692" y="10689980"/>
+          <a:ext cx="2051538" cy="2653751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>109905</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>7328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2481711</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>7328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Рисунок 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D308EA-737D-44C2-AB86-BDCEDAE51B99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6367097" y="10668001"/>
+          <a:ext cx="2371806" cy="2857500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1144,22 +1327,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6734175</xdr:colOff>
+      <xdr:colOff>4181475</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9099438</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>6400800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD052A2-355E-4C55-8E40-F59824E924CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98140C16-9405-44AD-9A7B-FB7BB9B1CB8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1167,16 +1350,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="18539" r="23086"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6734175" y="714375"/>
-          <a:ext cx="2365263" cy="3314700"/>
+          <a:off x="4181475" y="600075"/>
+          <a:ext cx="2219325" cy="5895975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1188,22 +1370,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3533775</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>6657976</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6459882</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:colOff>8943976</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9C7D06-1946-4EFB-9ABB-C287ADE4C5AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7FC5B1A-BF18-4D21-8119-D132D1244D78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1219,8 +1401,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3533775" y="895351"/>
-          <a:ext cx="2926107" cy="4933950"/>
+          <a:off x="6657976" y="638176"/>
+          <a:ext cx="2286000" cy="5943600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1232,22 +1414,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>5076825</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3428892</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>9144568</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>124797</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Рисунок 6">
+        <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB5ABF9-10C9-4888-9072-72CE363750D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B751A87-24A6-405B-97FE-6988906D9653}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1263,8 +1445,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="314325" y="895350"/>
-          <a:ext cx="3114567" cy="4867275"/>
+          <a:off x="5076825" y="7343775"/>
+          <a:ext cx="4067743" cy="6963747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4743450</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>40343</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91D1DDE-FB79-436C-8091-FBBDE99E2579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="7353300"/>
+          <a:ext cx="4448175" cy="6869768"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3886200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E87B316-F2F5-4007-B8CD-7B44592B91EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="590550"/>
+          <a:ext cx="3286125" cy="5981221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1628,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B466E91A-7B32-4035-97BB-2904BB7BD519}">
   <dimension ref="A1:AG238"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,22 +1970,22 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B2"/>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="4">
-        <v>900</v>
-      </c>
-      <c r="F2" s="4">
-        <v>320</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="C2" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>564</v>
+      </c>
+      <c r="F2">
+        <v>655</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
         <v>18</v>
       </c>
       <c r="K2" s="2"/>
@@ -1725,198 +1995,182 @@
         <v>1</v>
       </c>
       <c r="B3"/>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="4">
-        <v>782</v>
-      </c>
-      <c r="F3" s="4">
-        <v>320</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="C3" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>564</v>
+      </c>
+      <c r="F3">
+        <v>665</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3">
         <v>18</v>
       </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4"/>
-      <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="4">
-        <v>320</v>
-      </c>
-      <c r="F4" s="4">
-        <v>202</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="C4" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>564</v>
+      </c>
+      <c r="F4">
+        <v>665</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4">
         <v>18</v>
       </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B5"/>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="4">
-        <v>310</v>
-      </c>
-      <c r="F5" s="4">
-        <v>184</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="C5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>665</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
         <v>18</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B6"/>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="4">
-        <v>184</v>
-      </c>
-      <c r="F6" s="4">
-        <v>80</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2</v>
-      </c>
-      <c r="H6" s="4">
-        <v>18</v>
-      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B7"/>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="4">
-        <v>202</v>
-      </c>
-      <c r="F7" s="4">
-        <v>96</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>18</v>
+      <c r="F7">
+        <v>297</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
       </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B8"/>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="4">
-        <v>216</v>
-      </c>
-      <c r="F8" s="4">
-        <v>798</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>18</v>
-      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B9"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="C11" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="C12" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>18</v>
+      </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="C13" s="9"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
       <c r="K17" s="2"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1942,10 +2196,12 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
       <c r="K18" s="2"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1971,10 +2227,12 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
       <c r="K19" s="2"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2006,10 +2264,10 @@
       <c r="B20" s="30"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="32"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="31"/>
       <c r="K20" s="2"/>
     </row>
@@ -2045,274 +2303,206 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B22"/>
-      <c r="C22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="4">
-        <v>345</v>
-      </c>
-      <c r="F22" s="4">
-        <v>220</v>
-      </c>
-      <c r="G22" s="4">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="C22" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>228</v>
+      </c>
+      <c r="F22">
+        <v>272</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
         <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>59</v>
       </c>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B23"/>
-      <c r="C23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="4">
-        <v>320</v>
-      </c>
-      <c r="F23" s="4">
-        <v>220</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="C23" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <v>1413</v>
+      </c>
+      <c r="F23">
+        <v>228</v>
+      </c>
+      <c r="G23">
         <v>1</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23">
         <v>18</v>
       </c>
+      <c r="I23"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B24"/>
-      <c r="C24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="4">
-        <v>744</v>
-      </c>
-      <c r="F24" s="4">
-        <v>320</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="C24" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>1449</v>
+      </c>
+      <c r="F24">
+        <v>290</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
         <v>18</v>
       </c>
+      <c r="I24"/>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B25"/>
-      <c r="C25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="4">
-        <v>744</v>
-      </c>
-      <c r="F25" s="4">
-        <v>80</v>
-      </c>
-      <c r="G25" s="4">
-        <v>2</v>
-      </c>
-      <c r="H25" s="4">
+      <c r="C25" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <v>228</v>
+      </c>
+      <c r="F25">
+        <v>290</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <v>18</v>
       </c>
+      <c r="I25"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B26"/>
-      <c r="C26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="C26" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26">
+        <v>228</v>
+      </c>
+      <c r="F26">
+        <v>290</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B27"/>
-      <c r="C27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="4">
-        <v>310</v>
-      </c>
-      <c r="F27" s="4">
-        <v>170</v>
-      </c>
-      <c r="G27" s="4">
-        <v>2</v>
-      </c>
-      <c r="H27" s="4">
-        <v>18</v>
-      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B28"/>
-      <c r="C28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="4">
-        <v>694</v>
-      </c>
-      <c r="F28" s="4">
-        <v>141</v>
-      </c>
-      <c r="G28" s="4">
-        <v>2</v>
-      </c>
-      <c r="H28" s="4">
-        <v>18</v>
-      </c>
-      <c r="N28" t="s">
-        <v>3</v>
-      </c>
+      <c r="C28" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B29"/>
-      <c r="C29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="C29" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="4">
-        <v>310</v>
-      </c>
-      <c r="F29" s="4">
-        <v>694</v>
-      </c>
-      <c r="G29" s="4">
+      <c r="E29">
+        <v>2503</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29">
         <v>1</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29">
         <v>18</v>
       </c>
+      <c r="I29"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B30"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B31"/>
-      <c r="C31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="4">
-        <v>777</v>
-      </c>
-      <c r="F31" s="4">
-        <v>217</v>
-      </c>
-      <c r="G31" s="4">
-        <v>1</v>
-      </c>
-      <c r="H31" s="4">
-        <v>18</v>
-      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F33" s="4">
-        <v>365</v>
-      </c>
-      <c r="G33" s="4">
-        <v>1</v>
-      </c>
-      <c r="H33" s="4">
-        <v>18</v>
-      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="4">
-        <v>2500</v>
-      </c>
-      <c r="F34" s="4">
-        <v>1000</v>
-      </c>
-      <c r="G34" s="4">
-        <v>1</v>
-      </c>
-      <c r="H34" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4">
-        <v>1</v>
-      </c>
-      <c r="H35" s="4"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="35"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
@@ -2344,88 +2534,85 @@
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="4">
-        <v>1049</v>
-      </c>
-      <c r="F41" s="4">
-        <v>300</v>
-      </c>
-      <c r="G41" s="4">
+      <c r="C41" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="37">
+        <v>264</v>
+      </c>
+      <c r="F41" s="48">
+        <v>260</v>
+      </c>
+      <c r="G41" s="19">
         <v>1</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="37">
         <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1012</v>
-      </c>
-      <c r="F42" s="4">
-        <v>544</v>
-      </c>
-      <c r="G42" s="4">
+      <c r="C42" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="39">
+        <v>228</v>
+      </c>
+      <c r="F42" s="39">
+        <v>260</v>
+      </c>
+      <c r="G42" s="39">
         <v>1</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="37">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" s="4">
-        <v>544</v>
-      </c>
-      <c r="F43" s="4">
-        <v>300</v>
-      </c>
-      <c r="G43" s="4">
-        <v>1</v>
-      </c>
-      <c r="H43" s="4">
+      <c r="C43" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="9">
+        <v>228</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="9">
+        <v>2</v>
+      </c>
+      <c r="H43" s="37">
         <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="4">
-        <v>536</v>
-      </c>
-      <c r="F44" s="4">
-        <v>274</v>
-      </c>
-      <c r="G44" s="4">
+      <c r="B44"/>
+      <c r="C44" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="38">
+        <v>1038</v>
+      </c>
+      <c r="F44" s="9">
+        <v>260</v>
+      </c>
+      <c r="G44" s="9">
         <v>2</v>
       </c>
-      <c r="H44" s="4">
-        <v>6</v>
+      <c r="H44" s="37">
+        <v>18</v>
       </c>
       <c r="I44" s="4"/>
       <c r="K44" s="22"/>
@@ -2453,127 +2640,102 @@
       <c r="AG44" s="26"/>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" s="4">
-        <v>544</v>
-      </c>
-      <c r="F45" s="4">
-        <v>300</v>
-      </c>
-      <c r="G45" s="4">
+      <c r="B45"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="37"/>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B46"/>
+      <c r="C46" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="40">
+        <v>1052</v>
+      </c>
+      <c r="F46" s="40">
+        <v>260</v>
+      </c>
+      <c r="G46" s="40">
         <v>1</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H46" s="37">
+        <v>4</v>
+      </c>
+      <c r="I46" s="51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B47"/>
+      <c r="D47" s="19"/>
+      <c r="H47" s="37"/>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B48"/>
+      <c r="C48" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" s="7">
+        <v>1</v>
+      </c>
+      <c r="H48" s="37">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="4">
-        <v>1047</v>
-      </c>
-      <c r="F47" s="4">
-        <v>579</v>
-      </c>
-      <c r="G47" s="4">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B49"/>
+      <c r="H49" s="37"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B50"/>
+      <c r="C50" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50">
+        <v>260</v>
+      </c>
+      <c r="F50">
+        <v>1053</v>
+      </c>
+      <c r="G50">
         <v>1</v>
       </c>
-      <c r="H47" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
-      <c r="D48" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" s="4">
-        <v>1047</v>
-      </c>
-      <c r="F48" s="4">
-        <v>297</v>
-      </c>
-      <c r="G48" s="4">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E49" s="4">
-        <v>1013</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4">
-        <v>1</v>
-      </c>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
+      <c r="H50" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
+      <c r="B51"/>
+      <c r="D51" s="19"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
+      <c r="B52"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
+      <c r="B53"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
+      <c r="B54"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
+      <c r="B55"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
@@ -2606,298 +2768,150 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B57"/>
-      <c r="C57" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E57" s="4">
-        <v>2570</v>
-      </c>
-      <c r="F57" s="4">
-        <v>480</v>
-      </c>
-      <c r="G57" s="4">
-        <v>1</v>
-      </c>
-      <c r="H57" s="4">
+      <c r="C57" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G57" s="9">
+        <v>2</v>
+      </c>
+      <c r="H57" s="9">
         <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B58"/>
-      <c r="C58" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E58" s="4">
-        <v>2570</v>
-      </c>
-      <c r="F58" s="4">
-        <v>430</v>
-      </c>
-      <c r="G58" s="4">
+      <c r="C58" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="9">
+        <v>909</v>
+      </c>
+      <c r="F58" s="9">
+        <v>270</v>
+      </c>
+      <c r="G58" s="9">
         <v>1</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="9">
         <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B59"/>
-      <c r="C59" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E59" s="4">
-        <v>2670</v>
-      </c>
-      <c r="F59" s="4">
-        <v>430</v>
-      </c>
-      <c r="G59" s="4">
-        <v>2</v>
-      </c>
-      <c r="H59" s="4">
+      <c r="C59" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="9">
+        <v>909</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G59" s="9">
+        <v>1</v>
+      </c>
+      <c r="H59" s="9">
         <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B60"/>
-      <c r="C60" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E60" s="4">
-        <v>514</v>
-      </c>
-      <c r="F60" s="4">
-        <v>430</v>
-      </c>
-      <c r="G60" s="4">
-        <v>1</v>
-      </c>
-      <c r="H60" s="4">
+      <c r="C60" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="9">
+        <v>909</v>
+      </c>
+      <c r="F60" s="9">
+        <v>260</v>
+      </c>
+      <c r="G60" s="9">
+        <v>2</v>
+      </c>
+      <c r="H60" s="9">
         <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B61"/>
-      <c r="C61" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E61" s="4">
-        <v>624</v>
-      </c>
-      <c r="F61" s="4">
-        <v>430</v>
-      </c>
-      <c r="G61" s="4">
-        <v>1</v>
-      </c>
-      <c r="H61" s="4">
-        <v>18</v>
-      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B62"/>
-      <c r="C62" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E62" s="4">
-        <v>514</v>
-      </c>
-      <c r="F62" s="4">
-        <v>420</v>
-      </c>
-      <c r="G62" s="4">
-        <v>3</v>
-      </c>
-      <c r="H62" s="4">
-        <v>18</v>
+      <c r="C62" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" t="s">
+        <v>53</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C63" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E63" s="4">
-        <v>624</v>
-      </c>
-      <c r="F63" s="4">
-        <v>420</v>
-      </c>
-      <c r="G63" s="4">
-        <v>4</v>
-      </c>
-      <c r="H63" s="4">
-        <v>18</v>
-      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B64"/>
-      <c r="C64" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E64" s="4">
-        <v>532</v>
-      </c>
-      <c r="F64" s="4">
-        <v>430</v>
-      </c>
-      <c r="G64" s="4">
-        <v>1</v>
-      </c>
-      <c r="H64" s="4">
-        <v>18</v>
-      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
       <c r="L64" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E65" s="4">
-        <v>500</v>
-      </c>
-      <c r="F65" s="4">
-        <v>100</v>
-      </c>
-      <c r="G65" s="4">
-        <v>1</v>
-      </c>
-      <c r="H65" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E66" s="4">
-        <v>440</v>
-      </c>
-      <c r="F66" s="4">
-        <v>100</v>
-      </c>
-      <c r="G66" s="4">
-        <v>1</v>
-      </c>
-      <c r="H66" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E67" s="4">
-        <v>2567</v>
-      </c>
-      <c r="F67" s="4">
-        <v>547</v>
-      </c>
-      <c r="G67" s="4">
-        <v>1</v>
-      </c>
-      <c r="H67" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E68" s="4">
-        <v>1803</v>
-      </c>
-      <c r="F68" s="4">
-        <v>657</v>
-      </c>
-      <c r="G68" s="4">
-        <v>1</v>
-      </c>
-      <c r="H68" s="4">
-        <v>18</v>
-      </c>
+      <c r="D65" s="19"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B69"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E70" s="4">
-        <v>430</v>
-      </c>
-      <c r="F70" s="4">
-        <v>80</v>
-      </c>
-      <c r="G70" s="4">
-        <v>1</v>
-      </c>
-      <c r="H70" s="4">
-        <v>18</v>
-      </c>
+      <c r="D70" s="19"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B74"/>
@@ -3016,34 +3030,34 @@
       </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="D94" s="35"/>
+      <c r="D94" s="42"/>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="D95" s="35"/>
+      <c r="D95" s="42"/>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="D96" s="35"/>
+      <c r="D96" s="42"/>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D97" s="35"/>
+      <c r="D97" s="42"/>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D98" s="35"/>
+      <c r="D98" s="42"/>
     </row>
     <row r="99" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D99" s="35"/>
+      <c r="D99" s="42"/>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D100" s="35"/>
+      <c r="D100" s="42"/>
     </row>
     <row r="104" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D104" s="35"/>
+      <c r="D104" s="42"/>
     </row>
     <row r="105" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D105" s="35"/>
+      <c r="D105" s="42"/>
     </row>
     <row r="106" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D106" s="35"/>
+      <c r="D106" s="42"/>
     </row>
     <row r="114" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A114" s="20" t="s">
@@ -3075,28 +3089,28 @@
       </c>
     </row>
     <row r="115" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="D115" s="35"/>
+      <c r="D115" s="42"/>
     </row>
     <row r="116" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="D116" s="35"/>
+      <c r="D116" s="42"/>
     </row>
     <row r="117" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="D117" s="35"/>
+      <c r="D117" s="42"/>
     </row>
     <row r="118" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="D118" s="35"/>
+      <c r="D118" s="42"/>
     </row>
     <row r="119" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="D119" s="35"/>
+      <c r="D119" s="42"/>
     </row>
     <row r="120" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="D120" s="35"/>
+      <c r="D120" s="42"/>
     </row>
     <row r="122" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="1"/>
       <c r="C122" s="4"/>
-      <c r="D122" s="35"/>
+      <c r="D122" s="42"/>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
@@ -3127,7 +3141,7 @@
       <c r="AG122" s="25"/>
     </row>
     <row r="123" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="D123" s="35"/>
+      <c r="D123" s="42"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="20" t="s">
@@ -3159,28 +3173,28 @@
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D142" s="35"/>
+      <c r="D142" s="42"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D143" s="35"/>
+      <c r="D143" s="42"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D144" s="35"/>
+      <c r="D144" s="42"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D145" s="35"/>
+      <c r="D145" s="42"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D146" s="35"/>
+      <c r="D146" s="42"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D147" s="35"/>
+      <c r="D147" s="42"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D148" s="35"/>
+      <c r="D148" s="42"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D149" s="35"/>
+      <c r="D149" s="42"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="20" t="s">
@@ -3212,25 +3226,25 @@
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D158" s="35"/>
+      <c r="D158" s="42"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D159" s="35"/>
+      <c r="D159" s="42"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D160" s="35"/>
+      <c r="D160" s="42"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D161" s="35"/>
+      <c r="D161" s="42"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D162" s="35"/>
+      <c r="D162" s="42"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D163" s="35"/>
+      <c r="D163" s="42"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D165" s="35"/>
+      <c r="D165" s="42"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="20" t="s">
@@ -3262,19 +3276,19 @@
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D174" s="35"/>
+      <c r="D174" s="42"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D175" s="35"/>
+      <c r="D175" s="42"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D176" s="35"/>
+      <c r="D176" s="42"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D177" s="35"/>
+      <c r="D177" s="42"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D178" s="35"/>
+      <c r="D178" s="42"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="20" t="s">
@@ -3395,74 +3409,74 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E22 E20">
-    <cfRule type="expression" dxfId="17" priority="94">
+    <cfRule type="expression" dxfId="21" priority="94">
       <formula>AND(#REF!&gt;0,#REF!&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="95">
+    <cfRule type="expression" dxfId="20" priority="95">
       <formula>OR(#REF!&gt;0,#REF!&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22 F20">
-    <cfRule type="expression" dxfId="15" priority="100">
+    <cfRule type="expression" dxfId="19" priority="100">
       <formula>AND(#REF!&gt;0,#REF!&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="101">
+    <cfRule type="expression" dxfId="18" priority="101">
       <formula>OR(#REF!&gt;0,#REF!&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="expression" dxfId="13" priority="120">
+    <cfRule type="expression" dxfId="17" priority="120">
       <formula>AND(K13&gt;0,L13&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="121">
+    <cfRule type="expression" dxfId="16" priority="121">
       <formula>OR(K13&gt;0,L13&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="11" priority="128">
+    <cfRule type="expression" dxfId="15" priority="128">
       <formula>AND(K23&gt;0,L23&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="129">
+    <cfRule type="expression" dxfId="14" priority="129">
       <formula>OR(K23&gt;0,L23&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="9" priority="158">
+    <cfRule type="expression" dxfId="13" priority="158">
       <formula>AND(I30&gt;0,J23&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="159">
+    <cfRule type="expression" dxfId="12" priority="159">
       <formula>OR(I30&gt;0,J23&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="7" priority="168">
+    <cfRule type="expression" dxfId="11" priority="168">
       <formula>AND(I13&gt;0,J13&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="169">
+    <cfRule type="expression" dxfId="10" priority="169">
       <formula>OR(I13&gt;0,J13&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="5" priority="170">
+    <cfRule type="expression" dxfId="9" priority="170">
       <formula>AND(I10&gt;0,J10&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="171">
+    <cfRule type="expression" dxfId="8" priority="171">
       <formula>OR(I10&gt;0,J10&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E8">
-    <cfRule type="expression" dxfId="3" priority="3">
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>AND(I2&gt;0,J2&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>OR(I2&gt;0,J2&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F5 F7:F8">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND(K2&gt;0,L2&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>OR(K2&gt;0,L2&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3475,10 +3489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2791535-BE24-49EC-BDCA-6BEAF74BC161}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3488,7 +3502,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -3497,7 +3511,7 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3603,7 +3617,7 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3706,11 +3720,6 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -3724,7 +3733,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3737,22 +3746,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="A2" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="1:10" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -3775,12 +3784,12 @@
       <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>44</v>
+      <c r="B4" s="44" t="s">
+        <v>54</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>45</v>
+      <c r="D4" s="4">
+        <v>2</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="3"/>
@@ -3792,12 +3801,12 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -3808,10 +3817,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D6" s="7">
         <v>10</v>
@@ -3825,18 +3834,14 @@
       <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="B7" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="41"/>
       <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>54</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="J7" s="3"/>
@@ -3845,7 +3850,7 @@
       <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
